--- a/data/codons.xlsx
+++ b/data/codons.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merag\OneDrive\Pulpit\ABM_sprawozdanie\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{740B3356-5C82-47A8-AD49-9F81C3AB7CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="528" windowWidth="16512" windowHeight="5244"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="94">
   <si>
     <t>Triplet</t>
   </si>
@@ -293,13 +299,16 @@
   </si>
   <si>
     <t>mouse</t>
+  </si>
+  <si>
+    <t>rat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,14 +320,49 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F9FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFAFAFA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -348,10 +392,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -359,6 +431,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -646,19 +726,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F129"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB193"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" topLeftCell="A161" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L180" sqref="L180"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="8.88671875" style="15"/>
+    <col min="5" max="5" width="7.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.88671875" style="15" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,2563 +761,4671 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="14">
         <v>0.45</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="14">
         <v>16.899999999999999</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="14">
         <v>20.399999999999999</v>
       </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="E3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="14">
         <v>7.2</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="14">
         <v>0.13</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="14">
         <v>12.6</v>
       </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="E5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="14">
         <v>0.43</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="14">
         <v>12</v>
       </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="14">
         <v>15.6</v>
       </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="E7" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="14">
         <v>0.7</v>
       </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="14">
         <v>0.2</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="14">
         <v>0.5</v>
       </c>
-      <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="E9" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="14">
         <v>0.13</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="14">
         <v>12.8</v>
       </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="E10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="14">
         <v>0.2</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="14">
         <v>19.399999999999999</v>
       </c>
-      <c r="E11" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="E11" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="14">
         <v>6.9</v>
       </c>
-      <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="E12" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="14">
         <v>0.41</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="14">
         <v>40.299999999999997</v>
       </c>
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="E13" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="14">
         <v>0.41</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="14">
         <v>10.4</v>
       </c>
-      <c r="E14" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" t="s">
+      <c r="E14" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="14">
         <v>0.59</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="14">
         <v>14.9</v>
       </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" t="s">
+      <c r="E15" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="14">
         <v>0.25</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="14">
         <v>11.8</v>
       </c>
-      <c r="E16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+      <c r="E16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="14">
         <v>0.75</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="14">
         <v>34.6</v>
       </c>
-      <c r="E17" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="E17" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="14">
         <v>0.36</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="14">
         <v>15.7</v>
       </c>
-      <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18">
+      <c r="E18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="14">
         <v>0.48</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="14">
         <v>21.4</v>
       </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="E19" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="14">
         <v>0.16</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="14">
         <v>7.1</v>
       </c>
-      <c r="E20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20">
+      <c r="E20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
+      <c r="C21" s="14">
+        <v>1</v>
+      </c>
+      <c r="D21" s="14">
         <v>22.3</v>
       </c>
-      <c r="E21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="E21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="14">
         <v>0.46</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="14">
         <v>16.7</v>
       </c>
-      <c r="E22" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22">
+      <c r="E22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
-      <c r="A23" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="14">
         <v>0.54</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="14">
         <v>19.5</v>
       </c>
-      <c r="E23" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="E23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="14">
         <v>0.42</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="14">
         <v>24</v>
       </c>
-      <c r="E24" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24">
+      <c r="E24" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" t="s">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="14">
         <v>32.9</v>
       </c>
-      <c r="E25" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="E25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="14">
         <v>0.18</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="14">
         <v>10.9</v>
       </c>
-      <c r="E26" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="E26" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="14">
         <v>0.24</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="14">
         <v>14.6</v>
       </c>
-      <c r="E27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="E27" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="14">
         <v>0.11</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="14">
         <v>7</v>
       </c>
-      <c r="E28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="E28" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="14">
         <v>0.47</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="14">
         <v>28.9</v>
       </c>
-      <c r="E29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="E29" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="14">
         <v>0.46</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="14">
         <v>22.3</v>
       </c>
-      <c r="E30" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="E30" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="14">
         <v>0.54</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="14">
         <v>26</v>
       </c>
-      <c r="E31" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="E31" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="14">
         <v>0.42</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="14">
         <v>29</v>
       </c>
-      <c r="E32" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="E32" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="14">
         <v>40.799999999999997</v>
       </c>
-      <c r="E33" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="E33" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="14">
         <v>0.18</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="14">
         <v>14.6</v>
       </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" t="s">
+      <c r="E34" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="14">
         <v>0.22</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="14">
         <v>17.399999999999999</v>
       </c>
-      <c r="E35" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+      <c r="E35" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="14">
         <v>0.15</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="14">
         <v>11.7</v>
       </c>
-      <c r="E36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="E36" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="14">
         <v>0.06</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="14">
         <v>4.5</v>
       </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="E37" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="14">
         <v>0.45</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="14">
         <v>9.9</v>
       </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+      <c r="E38" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="14">
         <v>0.55000000000000004</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="14">
         <v>12.2</v>
       </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="E39" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="14">
         <v>0.52</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="14">
         <v>1.3</v>
       </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+      <c r="E40" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="14">
         <v>12.8</v>
       </c>
-      <c r="E41" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+      <c r="E41" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="14">
         <v>17.3</v>
       </c>
-      <c r="E42" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="E42" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="14">
         <v>0.33</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="14">
         <v>20</v>
       </c>
-      <c r="E43" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43">
+      <c r="E43" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
-      <c r="A44" t="s">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="14">
         <v>0.27</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="14">
         <v>16.7</v>
       </c>
-      <c r="E44" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
+      <c r="E44" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="14">
         <v>0.11</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="14">
         <v>7</v>
       </c>
-      <c r="E45" t="s">
-        <v>8</v>
-      </c>
-      <c r="F45">
+      <c r="E45" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" t="s">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="14">
         <v>0.08</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="14">
         <v>4.7</v>
       </c>
-      <c r="E46" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" t="s">
+      <c r="E46" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="14">
         <v>0.19</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="14">
         <v>10.9</v>
       </c>
-      <c r="E47" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47">
+      <c r="E47" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
-      <c r="A48" t="s">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="14">
         <v>0.11</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="14">
         <v>6.3</v>
       </c>
-      <c r="E48" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" t="s">
+      <c r="E48" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="14">
         <v>0.21</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="14">
         <v>11.9</v>
       </c>
-      <c r="E49" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49">
+      <c r="E49" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" t="s">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="14">
         <v>0.24</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="14">
         <v>12.8</v>
       </c>
-      <c r="E50" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" t="s">
+      <c r="E50" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="14">
         <v>0.36</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="14">
         <v>19.2</v>
       </c>
-      <c r="E51" t="s">
-        <v>8</v>
-      </c>
-      <c r="F51">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" t="s">
+      <c r="E51" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="14">
         <v>14.8</v>
       </c>
-      <c r="E52" t="s">
-        <v>8</v>
-      </c>
-      <c r="F52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" t="s">
+      <c r="E52" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="14">
         <v>0.12</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="14">
         <v>6.2</v>
       </c>
-      <c r="E53" t="s">
-        <v>8</v>
-      </c>
-      <c r="F53">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" t="s">
+      <c r="E53" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="14">
         <v>0.15</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="14">
         <v>11.9</v>
       </c>
-      <c r="E54" t="s">
-        <v>8</v>
-      </c>
-      <c r="F54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" t="s">
+      <c r="E54" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="14">
         <v>0.24</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="14">
         <v>19.399999999999999</v>
       </c>
-      <c r="E55" t="s">
-        <v>8</v>
-      </c>
-      <c r="F55">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" t="s">
+      <c r="E55" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="14">
         <v>0.2</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="14">
         <v>11.5</v>
       </c>
-      <c r="E56" t="s">
-        <v>8</v>
-      </c>
-      <c r="F56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" t="s">
+      <c r="E56" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="14">
         <v>0.2</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="14">
         <v>11.4</v>
       </c>
-      <c r="E57" t="s">
-        <v>8</v>
-      </c>
-      <c r="F57">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" t="s">
+      <c r="E57" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="14">
         <v>0.26</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="14">
         <v>18.600000000000001</v>
       </c>
-      <c r="E58" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" t="s">
+      <c r="E58" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="14">
         <v>0.4</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="14">
         <v>28.5</v>
       </c>
-      <c r="E59" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59">
+      <c r="E59" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
-      <c r="A60" t="s">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="14">
         <v>0.23</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="14">
         <v>16</v>
       </c>
-      <c r="E60" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" t="s">
+      <c r="E60" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="14">
         <v>0.11</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="14">
         <v>7.6</v>
       </c>
-      <c r="E61" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61">
+      <c r="E61" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
-      <c r="A62" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="14">
         <v>0.16</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="14">
         <v>10.8</v>
       </c>
-      <c r="E62" t="s">
-        <v>8</v>
-      </c>
-      <c r="F62">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
-      <c r="A63" t="s">
+      <c r="E62" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="14">
         <v>0.34</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="14">
         <v>22.8</v>
       </c>
-      <c r="E63" t="s">
-        <v>8</v>
-      </c>
-      <c r="F63">
+      <c r="E63" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
-      <c r="A64" t="s">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="14">
         <v>0.25</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="14">
         <v>16.3</v>
       </c>
-      <c r="E64" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
-      <c r="A65" t="s">
+      <c r="E64" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="14">
         <v>0.25</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="14">
         <v>16.399999999999999</v>
       </c>
-      <c r="E65" t="s">
-        <v>8</v>
-      </c>
-      <c r="F65">
+      <c r="E65" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:6">
-      <c r="A66" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="14">
         <v>0.43</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="14">
         <v>17.100000000000001</v>
       </c>
-      <c r="E66" t="s">
-        <v>92</v>
-      </c>
-      <c r="F66">
+      <c r="E66" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F66" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
-      <c r="A67" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="14">
         <v>22.3</v>
       </c>
-      <c r="E67" t="s">
-        <v>92</v>
-      </c>
-      <c r="F67">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
-      <c r="A68" t="s">
+      <c r="E67" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F67" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="14">
         <v>0.06</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="14">
         <v>6.5</v>
       </c>
-      <c r="E68" t="s">
-        <v>92</v>
-      </c>
-      <c r="F68">
+      <c r="E68" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F68" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="14">
         <v>0.13</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="14">
         <v>13.3</v>
       </c>
-      <c r="E69" t="s">
-        <v>92</v>
-      </c>
-      <c r="F69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
-      <c r="A70" t="s">
+      <c r="E69" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="14">
         <v>0.43</v>
       </c>
-      <c r="D70">
+      <c r="D70" s="14">
         <v>12.2</v>
       </c>
-      <c r="E70" t="s">
-        <v>92</v>
-      </c>
-      <c r="F70">
+      <c r="E70" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F70" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
-      <c r="A71" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="14">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D71">
+      <c r="D71" s="14">
         <v>16.5</v>
       </c>
-      <c r="E71" t="s">
-        <v>92</v>
-      </c>
-      <c r="F71">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
-      <c r="A72" t="s">
+      <c r="E71" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F71" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="14">
         <v>0.26</v>
       </c>
-      <c r="D72">
+      <c r="D72" s="14">
         <v>0.6</v>
       </c>
-      <c r="E72" t="s">
-        <v>92</v>
-      </c>
-      <c r="F72">
+      <c r="E72" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F72" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
-      <c r="A73" t="s">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="14">
         <v>0.22</v>
       </c>
-      <c r="D73">
+      <c r="D73" s="14">
         <v>0.5</v>
       </c>
-      <c r="E73" t="s">
-        <v>92</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
-      <c r="A74" t="s">
+      <c r="E73" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F73" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="14">
         <v>0.13</v>
       </c>
-      <c r="D74">
+      <c r="D74" s="14">
         <v>13.2</v>
       </c>
-      <c r="E74" t="s">
-        <v>92</v>
-      </c>
-      <c r="F74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
-      <c r="A75" t="s">
+      <c r="E74" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F74" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="14">
         <v>0.2</v>
       </c>
-      <c r="D75">
+      <c r="D75" s="14">
         <v>20.3</v>
       </c>
-      <c r="E75" t="s">
-        <v>92</v>
-      </c>
-      <c r="F75">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" t="s">
+      <c r="E75" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F75" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="14">
         <v>0.08</v>
       </c>
-      <c r="D76">
-        <v>8</v>
-      </c>
-      <c r="E76" t="s">
-        <v>92</v>
-      </c>
-      <c r="F76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
-      <c r="A77" t="s">
+      <c r="D76" s="14">
+        <v>8</v>
+      </c>
+      <c r="E76" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F76" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="14">
         <v>0.39</v>
       </c>
-      <c r="D77">
+      <c r="D77" s="14">
         <v>40</v>
       </c>
-      <c r="E77" t="s">
-        <v>92</v>
-      </c>
-      <c r="F77">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" t="s">
+      <c r="E77" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F77" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="14">
         <v>0.4</v>
       </c>
-      <c r="D78">
+      <c r="D78" s="14">
         <v>10.199999999999999</v>
       </c>
-      <c r="E78" t="s">
-        <v>92</v>
-      </c>
-      <c r="F78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" t="s">
+      <c r="E78" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F78" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="14">
         <v>0.6</v>
       </c>
-      <c r="D79">
+      <c r="D79" s="14">
         <v>15.2</v>
       </c>
-      <c r="E79" t="s">
-        <v>92</v>
-      </c>
-      <c r="F79">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
-      <c r="A80" t="s">
+      <c r="E79" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F79" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="14">
         <v>0.25</v>
       </c>
-      <c r="D80">
+      <c r="D80" s="14">
         <v>11.4</v>
       </c>
-      <c r="E80" t="s">
-        <v>92</v>
-      </c>
-      <c r="F80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" t="s">
+      <c r="E80" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F80" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="14">
         <v>0.75</v>
       </c>
-      <c r="D81">
+      <c r="D81" s="14">
         <v>34</v>
       </c>
-      <c r="E81" t="s">
-        <v>92</v>
-      </c>
-      <c r="F81">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
-      <c r="A82" t="s">
+      <c r="E81" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F81" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="14">
         <v>0.34</v>
       </c>
-      <c r="D82">
+      <c r="D82" s="14">
         <v>15.6</v>
       </c>
-      <c r="E82" t="s">
-        <v>92</v>
-      </c>
-      <c r="F82">
+      <c r="E82" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F82" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
-      <c r="A83" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="14">
         <v>0.5</v>
       </c>
-      <c r="D83">
+      <c r="D83" s="14">
         <v>23.2</v>
       </c>
-      <c r="E83" t="s">
-        <v>92</v>
-      </c>
-      <c r="F83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
-      <c r="A84" t="s">
+      <c r="E83" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F83" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="14">
         <v>0.16</v>
       </c>
-      <c r="D84">
+      <c r="D84" s="14">
         <v>7.2</v>
       </c>
-      <c r="E84" t="s">
-        <v>92</v>
-      </c>
-      <c r="F84">
+      <c r="E84" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F84" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
-      <c r="A85" t="s">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C85">
-        <v>1</v>
-      </c>
-      <c r="D85">
+      <c r="C85" s="14">
+        <v>1</v>
+      </c>
+      <c r="D85" s="14">
         <v>23.1</v>
       </c>
-      <c r="E85" t="s">
-        <v>92</v>
-      </c>
-      <c r="F85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
+      <c r="E85" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F85" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="14">
         <v>0.43</v>
       </c>
-      <c r="D86">
+      <c r="D86" s="14">
         <v>15.5</v>
       </c>
-      <c r="E86" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86">
+      <c r="E86" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
-      <c r="A87" t="s">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="D87">
+      <c r="D87" s="14">
         <v>20.7</v>
       </c>
-      <c r="E87" t="s">
-        <v>92</v>
-      </c>
-      <c r="F87">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" t="s">
+      <c r="E87" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="14">
         <v>0.39</v>
       </c>
-      <c r="D88">
+      <c r="D88" s="14">
         <v>21.3</v>
       </c>
-      <c r="E88" t="s">
-        <v>92</v>
-      </c>
-      <c r="F88">
+      <c r="E88" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F88" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
-      <c r="A89" t="s">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="14">
         <v>0.61</v>
       </c>
-      <c r="D89">
+      <c r="D89" s="14">
         <v>33.700000000000003</v>
       </c>
-      <c r="E89" t="s">
-        <v>92</v>
-      </c>
-      <c r="F89">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
-      <c r="A90" t="s">
+      <c r="E89" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="14">
         <v>0.17</v>
       </c>
-      <c r="D90">
+      <c r="D90" s="14">
         <v>10.7</v>
       </c>
-      <c r="E90" t="s">
-        <v>92</v>
-      </c>
-      <c r="F90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
-      <c r="A91" t="s">
+      <c r="E90" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="14">
         <v>0.25</v>
       </c>
-      <c r="D91">
+      <c r="D91" s="14">
         <v>15.7</v>
       </c>
-      <c r="E91" t="s">
-        <v>92</v>
-      </c>
-      <c r="F91">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
-      <c r="A92" t="s">
+      <c r="E91" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="14">
         <v>0.12</v>
       </c>
-      <c r="D92">
+      <c r="D92" s="14">
         <v>7.4</v>
       </c>
-      <c r="E92" t="s">
-        <v>92</v>
-      </c>
-      <c r="F92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
-      <c r="A93" t="s">
+      <c r="E92" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F92" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="14">
         <v>0.46</v>
       </c>
-      <c r="D93">
+      <c r="D93" s="14">
         <v>29.1</v>
       </c>
-      <c r="E93" t="s">
-        <v>92</v>
-      </c>
-      <c r="F93">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
-      <c r="A94" t="s">
+      <c r="E93" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F93" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="14">
         <v>0.44</v>
       </c>
-      <c r="D94">
+      <c r="D94" s="14">
         <v>21.1</v>
       </c>
-      <c r="E94" t="s">
-        <v>92</v>
-      </c>
-      <c r="F94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
+      <c r="E94" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F94" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="14">
         <v>0.56000000000000005</v>
       </c>
-      <c r="D95">
+      <c r="D95" s="14">
         <v>26.6</v>
       </c>
-      <c r="E95" t="s">
-        <v>92</v>
-      </c>
-      <c r="F95">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
-      <c r="A96" t="s">
+      <c r="E95" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F95" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="14">
         <v>0.4</v>
       </c>
-      <c r="D96">
+      <c r="D96" s="14">
         <v>26.5</v>
       </c>
-      <c r="E96" t="s">
-        <v>92</v>
-      </c>
-      <c r="F96">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
-      <c r="A97" t="s">
+      <c r="E96" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F96" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="14">
         <v>0.6</v>
       </c>
-      <c r="D97">
+      <c r="D97" s="14">
         <v>39.4</v>
       </c>
-      <c r="E97" t="s">
-        <v>92</v>
-      </c>
-      <c r="F97">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" t="s">
+      <c r="E97" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F97" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="14">
         <v>0.19</v>
       </c>
-      <c r="D98">
+      <c r="D98" s="14">
         <v>15.9</v>
       </c>
-      <c r="E98" t="s">
-        <v>92</v>
-      </c>
-      <c r="F98">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
-      <c r="A99" t="s">
+      <c r="E98" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F98" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="14">
         <v>0.22</v>
       </c>
-      <c r="D99">
+      <c r="D99" s="14">
         <v>18.100000000000001</v>
       </c>
-      <c r="E99" t="s">
-        <v>92</v>
-      </c>
-      <c r="F99">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
-      <c r="A100" t="s">
+      <c r="E99" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F99" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="14">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D100">
+      <c r="D100" s="14">
         <v>11.6</v>
       </c>
-      <c r="E100" t="s">
-        <v>92</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
-      <c r="A101" t="s">
+      <c r="E100" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F100" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="14">
         <v>0.05</v>
       </c>
-      <c r="D101">
+      <c r="D101" s="14">
         <v>4.3</v>
       </c>
-      <c r="E101" t="s">
-        <v>92</v>
-      </c>
-      <c r="F101">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
-      <c r="A102" t="s">
+      <c r="E101" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F101" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="14">
         <v>0.48</v>
       </c>
-      <c r="D102">
+      <c r="D102" s="14">
         <v>11.1</v>
       </c>
-      <c r="E102" t="s">
-        <v>92</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
-      <c r="A103" t="s">
+      <c r="E102" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F102" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C103">
+      <c r="C103" s="14">
         <v>0.52</v>
       </c>
-      <c r="D103">
+      <c r="D103" s="14">
         <v>12.1</v>
       </c>
-      <c r="E103" t="s">
-        <v>92</v>
-      </c>
-      <c r="F103">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
-      <c r="A104" t="s">
+      <c r="E103" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F103" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C104">
+      <c r="C104" s="14">
         <v>0.52</v>
       </c>
-      <c r="D104">
+      <c r="D104" s="14">
         <v>1.2</v>
       </c>
-      <c r="E104" t="s">
-        <v>92</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
-      <c r="A105" t="s">
+      <c r="E104" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F104" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105">
+      <c r="C105" s="14">
+        <v>1</v>
+      </c>
+      <c r="D105" s="14">
         <v>12.4</v>
       </c>
-      <c r="E105" t="s">
-        <v>92</v>
-      </c>
-      <c r="F105">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
-      <c r="A106" t="s">
+      <c r="E105" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F105" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C106">
+      <c r="C106" s="14">
         <v>0.3</v>
       </c>
-      <c r="D106">
+      <c r="D106" s="14">
         <v>18.3</v>
       </c>
-      <c r="E106" t="s">
-        <v>92</v>
-      </c>
-      <c r="F106">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
-      <c r="A107" t="s">
+      <c r="E106" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F106" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C107">
+      <c r="C107" s="14">
         <v>0.31</v>
       </c>
-      <c r="D107">
+      <c r="D107" s="14">
         <v>18.399999999999999</v>
       </c>
-      <c r="E107" t="s">
-        <v>92</v>
-      </c>
-      <c r="F107">
+      <c r="E107" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F107" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
-      <c r="A108" t="s">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C108">
+      <c r="C108" s="14">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D108">
+      <c r="D108" s="14">
         <v>17.100000000000001</v>
       </c>
-      <c r="E108" t="s">
-        <v>92</v>
-      </c>
-      <c r="F108">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
-      <c r="A109" t="s">
+      <c r="E108" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F108" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="C109">
+      <c r="C109" s="14">
         <v>0.1</v>
       </c>
-      <c r="D109">
+      <c r="D109" s="14">
         <v>6.3</v>
       </c>
-      <c r="E109" t="s">
-        <v>92</v>
-      </c>
-      <c r="F109">
+      <c r="E109" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F109" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
-      <c r="A110" t="s">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C110">
+      <c r="C110" s="14">
         <v>0.09</v>
       </c>
-      <c r="D110">
+      <c r="D110" s="14">
         <v>4.7</v>
       </c>
-      <c r="E110" t="s">
-        <v>92</v>
-      </c>
-      <c r="F110">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
-      <c r="A111" t="s">
+      <c r="E110" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F110" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C111">
+      <c r="C111" s="14">
         <v>0.18</v>
       </c>
-      <c r="D111">
+      <c r="D111" s="14">
         <v>9.5</v>
       </c>
-      <c r="E111" t="s">
-        <v>92</v>
-      </c>
-      <c r="F111">
+      <c r="E111" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F111" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
-      <c r="A112" t="s">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C112">
+      <c r="C112" s="14">
         <v>0.12</v>
       </c>
-      <c r="D112">
+      <c r="D112" s="14">
         <v>6.6</v>
       </c>
-      <c r="E112" t="s">
-        <v>92</v>
-      </c>
-      <c r="F112">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
-      <c r="A113" t="s">
+      <c r="E112" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F112" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C113">
+      <c r="C113" s="14">
         <v>0.19</v>
       </c>
-      <c r="D113">
+      <c r="D113" s="14">
         <v>10.3</v>
       </c>
-      <c r="E113" t="s">
-        <v>92</v>
-      </c>
-      <c r="F113">
+      <c r="E113" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F113" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
-      <c r="A114" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C114">
+      <c r="C114" s="14">
         <v>0.25</v>
       </c>
-      <c r="D114">
+      <c r="D114" s="14">
         <v>13.6</v>
       </c>
-      <c r="E114" t="s">
-        <v>92</v>
-      </c>
-      <c r="F114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6">
-      <c r="A115" t="s">
+      <c r="E114" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F114" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C115">
+      <c r="C115" s="14">
         <v>0.35</v>
       </c>
-      <c r="D115">
+      <c r="D115" s="14">
         <v>19.2</v>
       </c>
-      <c r="E115" t="s">
-        <v>92</v>
-      </c>
-      <c r="F115">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
-      <c r="A116" t="s">
+      <c r="E115" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F115" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C116">
+      <c r="C116" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D116">
+      <c r="D116" s="14">
         <v>15.9</v>
       </c>
-      <c r="E116" t="s">
-        <v>92</v>
-      </c>
-      <c r="F116">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6">
-      <c r="A117" t="s">
+      <c r="E116" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F116" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="C117">
+      <c r="C117" s="14">
         <v>0.11</v>
       </c>
-      <c r="D117">
+      <c r="D117" s="14">
         <v>5.8</v>
       </c>
-      <c r="E117" t="s">
-        <v>92</v>
-      </c>
-      <c r="F117">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
-      <c r="A118" t="s">
+      <c r="E117" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F117" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C118">
+      <c r="C118" s="14">
         <v>0.15</v>
       </c>
-      <c r="D118">
+      <c r="D118" s="14">
         <v>12.3</v>
       </c>
-      <c r="E118" t="s">
-        <v>92</v>
-      </c>
-      <c r="F118">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
-      <c r="A119" t="s">
+      <c r="E118" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F118" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="C119">
+      <c r="C119" s="14">
         <v>0.24</v>
       </c>
-      <c r="D119">
+      <c r="D119" s="14">
         <v>19.5</v>
       </c>
-      <c r="E119" t="s">
-        <v>92</v>
-      </c>
-      <c r="F119">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
-      <c r="A120" t="s">
+      <c r="E119" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F119" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C120">
+      <c r="C120" s="14">
         <v>0.21</v>
       </c>
-      <c r="D120">
+      <c r="D120" s="14">
         <v>11.4</v>
       </c>
-      <c r="E120" t="s">
-        <v>92</v>
-      </c>
-      <c r="F120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
-      <c r="A121" t="s">
+      <c r="E120" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F120" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C121">
+      <c r="C121" s="14">
         <v>0.22</v>
       </c>
-      <c r="D121">
+      <c r="D121" s="14">
         <v>11.7</v>
       </c>
-      <c r="E121" t="s">
-        <v>92</v>
-      </c>
-      <c r="F121">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
-      <c r="A122" t="s">
+      <c r="E121" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F121" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C122">
+      <c r="C122" s="14">
         <v>0.28999999999999998</v>
       </c>
-      <c r="D122">
+      <c r="D122" s="14">
         <v>20.100000000000001</v>
       </c>
-      <c r="E122" t="s">
-        <v>92</v>
-      </c>
-      <c r="F122">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
-      <c r="A123" t="s">
+      <c r="E122" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F122" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C123">
+      <c r="C123" s="14">
         <v>0.38</v>
       </c>
-      <c r="D123">
+      <c r="D123" s="14">
         <v>26.4</v>
       </c>
-      <c r="E123" t="s">
-        <v>92</v>
-      </c>
-      <c r="F123">
+      <c r="E123" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F123" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
-      <c r="A124" t="s">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C124">
+      <c r="C124" s="14">
         <v>0.23</v>
       </c>
-      <c r="D124">
+      <c r="D124" s="14">
         <v>15.8</v>
       </c>
-      <c r="E124" t="s">
-        <v>92</v>
-      </c>
-      <c r="F124">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6">
-      <c r="A125" t="s">
+      <c r="E124" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F124" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="C125">
+      <c r="C125" s="14">
         <v>0.1</v>
       </c>
-      <c r="D125">
+      <c r="D125" s="14">
         <v>6.6</v>
       </c>
-      <c r="E125" t="s">
-        <v>92</v>
-      </c>
-      <c r="F125">
+      <c r="E125" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F125" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
-      <c r="A126" t="s">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C126">
+      <c r="C126" s="14">
         <v>0.18</v>
       </c>
-      <c r="D126">
+      <c r="D126" s="14">
         <v>11.5</v>
       </c>
-      <c r="E126" t="s">
-        <v>92</v>
-      </c>
-      <c r="F126">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
-      <c r="A127" t="s">
+      <c r="E126" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F126" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C127">
+      <c r="C127" s="14">
         <v>0.33</v>
       </c>
-      <c r="D127">
+      <c r="D127" s="14">
         <v>21.9</v>
       </c>
-      <c r="E127" t="s">
-        <v>92</v>
-      </c>
-      <c r="F127">
+      <c r="E127" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F127" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
-      <c r="A128" t="s">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C128">
+      <c r="C128" s="14">
         <v>0.26</v>
       </c>
-      <c r="D128">
+      <c r="D128" s="14">
         <v>16.899999999999999</v>
       </c>
-      <c r="E128" t="s">
-        <v>92</v>
-      </c>
-      <c r="F128">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" t="s">
+      <c r="E128" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F128" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A129" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C129">
+      <c r="C129" s="14">
         <v>0.23</v>
       </c>
-      <c r="D129">
+      <c r="D129" s="14">
         <v>15.4</v>
       </c>
-      <c r="E129" t="s">
-        <v>92</v>
-      </c>
-      <c r="F129">
+      <c r="E129" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F129" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A130" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="9">
+        <v>0.41</v>
+      </c>
+      <c r="D130" s="9">
+        <v>16.5</v>
+      </c>
+      <c r="E130" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F130" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A131" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="9">
+        <v>0.59</v>
+      </c>
+      <c r="D131" s="9">
+        <v>24</v>
+      </c>
+      <c r="E131" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F131" s="14">
+        <v>1</v>
+      </c>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="4"/>
+      <c r="Q131" s="4"/>
+      <c r="R131" s="4"/>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+    </row>
+    <row r="132" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A132" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="D132" s="9">
+        <v>5.6</v>
+      </c>
+      <c r="E132" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F132" s="14">
+        <v>0</v>
+      </c>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="4"/>
+      <c r="Q132" s="4"/>
+      <c r="R132" s="4"/>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+    </row>
+    <row r="133" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A133" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D133" s="9">
+        <v>12.4</v>
+      </c>
+      <c r="E133" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F133" s="14">
+        <v>1</v>
+      </c>
+      <c r="H133" s="5"/>
+      <c r="I133" s="5"/>
+      <c r="J133" s="6"/>
+      <c r="K133" s="6"/>
+      <c r="L133" s="7"/>
+      <c r="M133" s="7"/>
+      <c r="N133" s="7"/>
+      <c r="O133" s="7"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="7"/>
+      <c r="R133" s="7"/>
+      <c r="S133" s="7"/>
+      <c r="T133" s="7"/>
+      <c r="U133" s="7"/>
+      <c r="V133" s="7"/>
+      <c r="W133" s="7"/>
+      <c r="X133" s="7"/>
+      <c r="Y133" s="7"/>
+      <c r="Z133" s="3"/>
+      <c r="AA133" s="3"/>
+      <c r="AB133" s="3"/>
+    </row>
+    <row r="134" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A134" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C134" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D134" s="10">
+        <v>11.7</v>
+      </c>
+      <c r="E134" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F134" s="14">
+        <v>0</v>
+      </c>
+      <c r="H134" s="5"/>
+      <c r="I134" s="5"/>
+      <c r="J134" s="6"/>
+      <c r="K134" s="6"/>
+      <c r="L134" s="7"/>
+      <c r="M134" s="7"/>
+      <c r="N134" s="7"/>
+      <c r="O134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="7"/>
+      <c r="R134" s="7"/>
+      <c r="S134" s="7"/>
+      <c r="T134" s="7"/>
+      <c r="U134" s="7"/>
+      <c r="V134" s="7"/>
+      <c r="W134" s="7"/>
+      <c r="X134" s="7"/>
+      <c r="Y134" s="7"/>
+      <c r="Z134" s="3"/>
+      <c r="AA134" s="3"/>
+      <c r="AB134" s="3"/>
+    </row>
+    <row r="135" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A135" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C135" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D135" s="10">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="E135" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F135" s="14">
+        <v>1</v>
+      </c>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="6"/>
+      <c r="K135" s="6"/>
+      <c r="L135" s="7"/>
+      <c r="M135" s="11"/>
+      <c r="N135" s="11"/>
+      <c r="O135" s="11"/>
+      <c r="P135" s="11"/>
+      <c r="Q135" s="11"/>
+      <c r="R135" s="11"/>
+      <c r="S135" s="11"/>
+      <c r="T135" s="11"/>
+      <c r="U135" s="11"/>
+      <c r="V135" s="8"/>
+      <c r="W135" s="7"/>
+      <c r="X135" s="7"/>
+      <c r="Y135" s="7"/>
+      <c r="Z135" s="3"/>
+      <c r="AA135" s="3"/>
+      <c r="AB135" s="3"/>
+    </row>
+    <row r="136" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A136" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C136" s="10">
+        <v>0.27</v>
+      </c>
+      <c r="D136" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="E136" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F136" s="14">
+        <v>0</v>
+      </c>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="6"/>
+      <c r="K136" s="6"/>
+      <c r="L136" s="7"/>
+      <c r="M136" s="12"/>
+      <c r="N136" s="12"/>
+      <c r="O136" s="12"/>
+      <c r="P136" s="12"/>
+      <c r="Q136" s="12"/>
+      <c r="R136" s="12"/>
+      <c r="S136" s="12"/>
+      <c r="T136" s="12"/>
+      <c r="U136" s="12"/>
+      <c r="V136" s="12"/>
+      <c r="W136" s="7"/>
+      <c r="X136" s="7"/>
+      <c r="Y136" s="7"/>
+      <c r="Z136" s="3"/>
+      <c r="AA136" s="3"/>
+      <c r="AB136" s="3"/>
+    </row>
+    <row r="137" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A137" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C137" s="10">
+        <v>0.23</v>
+      </c>
+      <c r="D137" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="E137" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F137" s="14">
+        <v>1</v>
+      </c>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="6"/>
+      <c r="K137" s="6"/>
+      <c r="L137" s="7"/>
+      <c r="M137" s="12"/>
+      <c r="N137" s="12"/>
+      <c r="O137" s="12"/>
+      <c r="P137" s="12"/>
+      <c r="Q137" s="12"/>
+      <c r="R137" s="12"/>
+      <c r="S137" s="12"/>
+      <c r="T137" s="12"/>
+      <c r="U137" s="12"/>
+      <c r="V137" s="12"/>
+      <c r="W137" s="7"/>
+      <c r="X137" s="7"/>
+      <c r="Y137" s="7"/>
+      <c r="Z137" s="3"/>
+      <c r="AA137" s="3"/>
+      <c r="AB137" s="3"/>
+    </row>
+    <row r="138" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A138" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D138" s="9">
+        <v>12.1</v>
+      </c>
+      <c r="E138" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F138" s="14">
+        <v>1</v>
+      </c>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="6"/>
+      <c r="K138" s="6"/>
+      <c r="L138" s="7"/>
+      <c r="M138" s="12"/>
+      <c r="N138" s="12"/>
+      <c r="O138" s="12"/>
+      <c r="P138" s="12"/>
+      <c r="Q138" s="12"/>
+      <c r="R138" s="12"/>
+      <c r="S138" s="12"/>
+      <c r="T138" s="12"/>
+      <c r="U138" s="12"/>
+      <c r="V138" s="12"/>
+      <c r="W138" s="7"/>
+      <c r="X138" s="7"/>
+      <c r="Y138" s="7"/>
+      <c r="Z138" s="3"/>
+      <c r="AA138" s="3"/>
+      <c r="AB138" s="3"/>
+    </row>
+    <row r="139" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A139" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" s="9">
+        <v>0.21</v>
+      </c>
+      <c r="D139" s="9">
+        <v>20.7</v>
+      </c>
+      <c r="E139" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F139" s="14">
+        <v>2</v>
+      </c>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="6"/>
+      <c r="K139" s="6"/>
+      <c r="L139" s="7"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+      <c r="O139" s="12"/>
+      <c r="P139" s="12"/>
+      <c r="Q139" s="12"/>
+      <c r="R139" s="12"/>
+      <c r="S139" s="12"/>
+      <c r="T139" s="12"/>
+      <c r="U139" s="12"/>
+      <c r="V139" s="12"/>
+      <c r="W139" s="7"/>
+      <c r="X139" s="7"/>
+      <c r="Y139" s="7"/>
+      <c r="Z139" s="3"/>
+      <c r="AA139" s="3"/>
+      <c r="AB139" s="3"/>
+    </row>
+    <row r="140" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" s="9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D140" s="9">
+        <v>7.3</v>
+      </c>
+      <c r="E140" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F140" s="14">
+        <v>1</v>
+      </c>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="6"/>
+      <c r="K140" s="6"/>
+      <c r="L140" s="7"/>
+      <c r="M140" s="13"/>
+      <c r="N140" s="13"/>
+      <c r="O140" s="13"/>
+      <c r="P140" s="13"/>
+      <c r="Q140" s="13"/>
+      <c r="R140" s="13"/>
+      <c r="S140" s="13"/>
+      <c r="T140" s="13"/>
+      <c r="U140" s="13"/>
+      <c r="V140" s="13"/>
+      <c r="W140" s="7"/>
+      <c r="X140" s="7"/>
+      <c r="Y140" s="7"/>
+      <c r="Z140" s="3"/>
+      <c r="AA140" s="3"/>
+      <c r="AB140" s="3"/>
+    </row>
+    <row r="141" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A141" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141" s="9">
+        <v>0.42</v>
+      </c>
+      <c r="D141" s="9">
+        <v>41.2</v>
+      </c>
+      <c r="E141" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F141" s="14">
+        <v>2</v>
+      </c>
+      <c r="H141" s="5"/>
+      <c r="I141" s="5"/>
+      <c r="J141" s="6"/>
+      <c r="K141" s="6"/>
+      <c r="L141" s="7"/>
+      <c r="M141" s="13"/>
+      <c r="N141" s="13"/>
+      <c r="O141" s="13"/>
+      <c r="P141" s="13"/>
+      <c r="Q141" s="13"/>
+      <c r="R141" s="13"/>
+      <c r="S141" s="13"/>
+      <c r="T141" s="13"/>
+      <c r="U141" s="13"/>
+      <c r="V141" s="13"/>
+      <c r="W141" s="7"/>
+      <c r="X141" s="7"/>
+      <c r="Y141" s="7"/>
+      <c r="Z141" s="3"/>
+      <c r="AA141" s="3"/>
+      <c r="AB141" s="3"/>
+    </row>
+    <row r="142" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A142" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="D142" s="10">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E142" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F142" s="14">
+        <v>1</v>
+      </c>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="6"/>
+      <c r="K142" s="6"/>
+      <c r="L142" s="7"/>
+      <c r="M142" s="13"/>
+      <c r="N142" s="13"/>
+      <c r="O142" s="13"/>
+      <c r="P142" s="13"/>
+      <c r="Q142" s="13"/>
+      <c r="R142" s="13"/>
+      <c r="S142" s="13"/>
+      <c r="T142" s="13"/>
+      <c r="U142" s="13"/>
+      <c r="V142" s="13"/>
+      <c r="W142" s="7"/>
+      <c r="X142" s="7"/>
+      <c r="Y142" s="7"/>
+      <c r="Z142" s="3"/>
+      <c r="AA142" s="3"/>
+      <c r="AB142" s="3"/>
+    </row>
+    <row r="143" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A143" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C143" s="10">
+        <v>0.62</v>
+      </c>
+      <c r="D143" s="10">
+        <v>14.9</v>
+      </c>
+      <c r="E143" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F143" s="14">
+        <v>2</v>
+      </c>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="6"/>
+      <c r="K143" s="6"/>
+      <c r="L143" s="7"/>
+      <c r="M143" s="13"/>
+      <c r="N143" s="13"/>
+      <c r="O143" s="13"/>
+      <c r="P143" s="13"/>
+      <c r="Q143" s="13"/>
+      <c r="R143" s="13"/>
+      <c r="S143" s="13"/>
+      <c r="T143" s="13"/>
+      <c r="U143" s="13"/>
+      <c r="V143" s="13"/>
+      <c r="W143" s="7"/>
+      <c r="X143" s="7"/>
+      <c r="Y143" s="7"/>
+      <c r="Z143" s="3"/>
+      <c r="AA143" s="3"/>
+      <c r="AB143" s="3"/>
+    </row>
+    <row r="144" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A144" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C144" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D144" s="10">
+        <v>10.8</v>
+      </c>
+      <c r="E144" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F144" s="14">
+        <v>1</v>
+      </c>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="6"/>
+      <c r="K144" s="6"/>
+      <c r="L144" s="7"/>
+      <c r="M144" s="12"/>
+      <c r="N144" s="12"/>
+      <c r="O144" s="12"/>
+      <c r="P144" s="12"/>
+      <c r="Q144" s="12"/>
+      <c r="R144" s="12"/>
+      <c r="S144" s="12"/>
+      <c r="T144" s="12"/>
+      <c r="U144" s="12"/>
+      <c r="V144" s="12"/>
+      <c r="W144" s="7"/>
+      <c r="X144" s="7"/>
+      <c r="Y144" s="7"/>
+      <c r="Z144" s="3"/>
+      <c r="AA144" s="3"/>
+      <c r="AB144" s="3"/>
+    </row>
+    <row r="145" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A145" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" s="10">
+        <v>0.75</v>
+      </c>
+      <c r="D145" s="10">
+        <v>33</v>
+      </c>
+      <c r="E145" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F145" s="14">
+        <v>2</v>
+      </c>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="6"/>
+      <c r="K145" s="6"/>
+      <c r="L145" s="7"/>
+      <c r="M145" s="12"/>
+      <c r="N145" s="12"/>
+      <c r="O145" s="12"/>
+      <c r="P145" s="12"/>
+      <c r="Q145" s="12"/>
+      <c r="R145" s="12"/>
+      <c r="S145" s="12"/>
+      <c r="T145" s="12"/>
+      <c r="U145" s="12"/>
+      <c r="V145" s="12"/>
+      <c r="W145" s="7"/>
+      <c r="X145" s="7"/>
+      <c r="Y145" s="7"/>
+      <c r="Z145" s="3"/>
+      <c r="AA145" s="3"/>
+      <c r="AB145" s="3"/>
+    </row>
+    <row r="146" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A146" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C146" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="D146" s="9">
+        <v>15.5</v>
+      </c>
+      <c r="E146" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F146" s="14">
+        <v>0</v>
+      </c>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="6"/>
+      <c r="K146" s="6"/>
+      <c r="L146" s="7"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
+      <c r="Q146" s="12"/>
+      <c r="R146" s="12"/>
+      <c r="S146" s="12"/>
+      <c r="T146" s="12"/>
+      <c r="U146" s="12"/>
+      <c r="V146" s="12"/>
+      <c r="W146" s="7"/>
+      <c r="X146" s="7"/>
+      <c r="Y146" s="7"/>
+      <c r="Z146" s="3"/>
+      <c r="AA146" s="3"/>
+      <c r="AB146" s="3"/>
+    </row>
+    <row r="147" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A147" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C147" s="9">
+        <v>0.54</v>
+      </c>
+      <c r="D147" s="9">
+        <v>25.6</v>
+      </c>
+      <c r="E147" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F147" s="14">
+        <v>1</v>
+      </c>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="6"/>
+      <c r="K147" s="6"/>
+      <c r="L147" s="7"/>
+      <c r="M147" s="12"/>
+      <c r="N147" s="12"/>
+      <c r="O147" s="12"/>
+      <c r="P147" s="12"/>
+      <c r="Q147" s="12"/>
+      <c r="R147" s="12"/>
+      <c r="S147" s="12"/>
+      <c r="T147" s="12"/>
+      <c r="U147" s="12"/>
+      <c r="V147" s="12"/>
+      <c r="W147" s="7"/>
+      <c r="X147" s="7"/>
+      <c r="Y147" s="7"/>
+      <c r="Z147" s="3"/>
+      <c r="AA147" s="3"/>
+      <c r="AB147" s="3"/>
+    </row>
+    <row r="148" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A148" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D148" s="9">
+        <v>6.7</v>
+      </c>
+      <c r="E148" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F148" s="14">
+        <v>0</v>
+      </c>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="6"/>
+      <c r="K148" s="6"/>
+      <c r="L148" s="7"/>
+      <c r="M148" s="13"/>
+      <c r="N148" s="13"/>
+      <c r="O148" s="13"/>
+      <c r="P148" s="13"/>
+      <c r="Q148" s="13"/>
+      <c r="R148" s="13"/>
+      <c r="S148" s="13"/>
+      <c r="T148" s="13"/>
+      <c r="U148" s="13"/>
+      <c r="V148" s="13"/>
+      <c r="W148" s="7"/>
+      <c r="X148" s="7"/>
+      <c r="Y148" s="7"/>
+      <c r="Z148" s="3"/>
+      <c r="AA148" s="3"/>
+      <c r="AB148" s="3"/>
+    </row>
+    <row r="149" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A149" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C149" s="9">
+        <v>1</v>
+      </c>
+      <c r="D149" s="9">
+        <v>23.7</v>
+      </c>
+      <c r="E149" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F149" s="14">
+        <v>1</v>
+      </c>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="6"/>
+      <c r="K149" s="6"/>
+      <c r="L149" s="7"/>
+      <c r="M149" s="13"/>
+      <c r="N149" s="13"/>
+      <c r="O149" s="13"/>
+      <c r="P149" s="13"/>
+      <c r="Q149" s="13"/>
+      <c r="R149" s="13"/>
+      <c r="S149" s="13"/>
+      <c r="T149" s="13"/>
+      <c r="U149" s="13"/>
+      <c r="V149" s="13"/>
+      <c r="W149" s="7"/>
+      <c r="X149" s="7"/>
+      <c r="Y149" s="7"/>
+      <c r="Z149" s="3"/>
+      <c r="AA149" s="3"/>
+      <c r="AB149" s="3"/>
+    </row>
+    <row r="150" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A150" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C150" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D150" s="10">
+        <v>15.1</v>
+      </c>
+      <c r="E150" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F150" s="14">
+        <v>0</v>
+      </c>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="6"/>
+      <c r="K150" s="6"/>
+      <c r="L150" s="7"/>
+      <c r="M150" s="13"/>
+      <c r="N150" s="13"/>
+      <c r="O150" s="13"/>
+      <c r="P150" s="13"/>
+      <c r="Q150" s="13"/>
+      <c r="R150" s="13"/>
+      <c r="S150" s="13"/>
+      <c r="T150" s="13"/>
+      <c r="U150" s="13"/>
+      <c r="V150" s="13"/>
+      <c r="W150" s="7"/>
+      <c r="X150" s="7"/>
+      <c r="Y150" s="7"/>
+      <c r="Z150" s="3"/>
+      <c r="AA150" s="3"/>
+      <c r="AB150" s="3"/>
+    </row>
+    <row r="151" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A151" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C151" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="D151" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F151" s="14">
+        <v>1</v>
+      </c>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="6"/>
+      <c r="K151" s="6"/>
+      <c r="L151" s="7"/>
+      <c r="M151" s="13"/>
+      <c r="N151" s="13"/>
+      <c r="O151" s="13"/>
+      <c r="P151" s="13"/>
+      <c r="Q151" s="13"/>
+      <c r="R151" s="13"/>
+      <c r="S151" s="13"/>
+      <c r="T151" s="13"/>
+      <c r="U151" s="13"/>
+      <c r="V151" s="13"/>
+      <c r="W151" s="7"/>
+      <c r="X151" s="7"/>
+      <c r="Y151" s="7"/>
+      <c r="Z151" s="3"/>
+      <c r="AA151" s="3"/>
+      <c r="AB151" s="3"/>
+    </row>
+    <row r="152" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A152" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C152" s="10">
+        <v>0.37</v>
+      </c>
+      <c r="D152" s="10">
+        <v>20.8</v>
+      </c>
+      <c r="E152" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F152" s="14">
+        <v>0</v>
+      </c>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="6"/>
+      <c r="K152" s="6"/>
+      <c r="L152" s="7"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="12"/>
+      <c r="T152" s="12"/>
+      <c r="U152" s="12"/>
+      <c r="V152" s="12"/>
+      <c r="W152" s="7"/>
+      <c r="X152" s="7"/>
+      <c r="Y152" s="7"/>
+      <c r="Z152" s="3"/>
+      <c r="AA152" s="3"/>
+      <c r="AB152" s="3"/>
+    </row>
+    <row r="153" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A153" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C153" s="10">
+        <v>0.63</v>
+      </c>
+      <c r="D153" s="10">
+        <v>35</v>
+      </c>
+      <c r="E153" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F153" s="14">
+        <v>1</v>
+      </c>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="6"/>
+      <c r="K153" s="6"/>
+      <c r="L153" s="7"/>
+      <c r="M153" s="12"/>
+      <c r="N153" s="12"/>
+      <c r="O153" s="12"/>
+      <c r="P153" s="12"/>
+      <c r="Q153" s="12"/>
+      <c r="R153" s="12"/>
+      <c r="S153" s="12"/>
+      <c r="T153" s="12"/>
+      <c r="U153" s="12"/>
+      <c r="V153" s="12"/>
+      <c r="W153" s="7"/>
+      <c r="X153" s="7"/>
+      <c r="Y153" s="7"/>
+      <c r="Z153" s="3"/>
+      <c r="AA153" s="3"/>
+      <c r="AB153" s="3"/>
+    </row>
+    <row r="154" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A154" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C154" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="D154" s="9">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E154" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F154" s="14">
+        <v>1</v>
+      </c>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="6"/>
+      <c r="K154" s="6"/>
+      <c r="L154" s="7"/>
+      <c r="M154" s="12"/>
+      <c r="N154" s="12"/>
+      <c r="O154" s="12"/>
+      <c r="P154" s="12"/>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="12"/>
+      <c r="T154" s="12"/>
+      <c r="U154" s="12"/>
+      <c r="V154" s="12"/>
+      <c r="W154" s="7"/>
+      <c r="X154" s="7"/>
+      <c r="Y154" s="7"/>
+      <c r="Z154" s="3"/>
+      <c r="AA154" s="3"/>
+      <c r="AB154" s="3"/>
+    </row>
+    <row r="155" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A155" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C155" s="9">
+        <v>0.26</v>
+      </c>
+      <c r="D155" s="9">
+        <v>16.7</v>
+      </c>
+      <c r="E155" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F155" s="14">
+        <v>2</v>
+      </c>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="6"/>
+      <c r="K155" s="6"/>
+      <c r="L155" s="7"/>
+      <c r="M155" s="12"/>
+      <c r="N155" s="12"/>
+      <c r="O155" s="12"/>
+      <c r="P155" s="12"/>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="12"/>
+      <c r="T155" s="12"/>
+      <c r="U155" s="12"/>
+      <c r="V155" s="12"/>
+      <c r="W155" s="7"/>
+      <c r="X155" s="7"/>
+      <c r="Y155" s="7"/>
+      <c r="Z155" s="3"/>
+      <c r="AA155" s="3"/>
+      <c r="AB155" s="3"/>
+    </row>
+    <row r="156" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A156" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C156" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D156" s="9">
+        <v>7</v>
+      </c>
+      <c r="E156" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F156" s="14">
+        <v>1</v>
+      </c>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="6"/>
+      <c r="K156" s="6"/>
+      <c r="L156" s="7"/>
+      <c r="M156" s="13"/>
+      <c r="N156" s="13"/>
+      <c r="O156" s="13"/>
+      <c r="P156" s="13"/>
+      <c r="Q156" s="13"/>
+      <c r="R156" s="13"/>
+      <c r="S156" s="13"/>
+      <c r="T156" s="13"/>
+      <c r="U156" s="13"/>
+      <c r="V156" s="13"/>
+      <c r="W156" s="7"/>
+      <c r="X156" s="7"/>
+      <c r="Y156" s="7"/>
+      <c r="Z156" s="3"/>
+      <c r="AA156" s="3"/>
+      <c r="AB156" s="3"/>
+    </row>
+    <row r="157" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A157" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C157" s="9">
+        <v>0.47</v>
+      </c>
+      <c r="D157" s="9">
+        <v>30.4</v>
+      </c>
+      <c r="E157" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F157" s="14">
+        <v>2</v>
+      </c>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="6"/>
+      <c r="K157" s="6"/>
+      <c r="L157" s="7"/>
+      <c r="M157" s="13"/>
+      <c r="N157" s="13"/>
+      <c r="O157" s="13"/>
+      <c r="P157" s="13"/>
+      <c r="Q157" s="13"/>
+      <c r="R157" s="13"/>
+      <c r="S157" s="13"/>
+      <c r="T157" s="13"/>
+      <c r="U157" s="13"/>
+      <c r="V157" s="13"/>
+      <c r="W157" s="7"/>
+      <c r="X157" s="7"/>
+      <c r="Y157" s="7"/>
+      <c r="Z157" s="3"/>
+      <c r="AA157" s="3"/>
+      <c r="AB157" s="3"/>
+    </row>
+    <row r="158" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A158" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C158" s="10">
+        <v>0.42</v>
+      </c>
+      <c r="D158" s="10">
+        <v>20.8</v>
+      </c>
+      <c r="E158" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F158" s="14">
+        <v>1</v>
+      </c>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="6"/>
+      <c r="K158" s="6"/>
+      <c r="L158" s="7"/>
+      <c r="M158" s="13"/>
+      <c r="N158" s="13"/>
+      <c r="O158" s="13"/>
+      <c r="P158" s="13"/>
+      <c r="Q158" s="13"/>
+      <c r="R158" s="13"/>
+      <c r="S158" s="13"/>
+      <c r="T158" s="13"/>
+      <c r="U158" s="13"/>
+      <c r="V158" s="13"/>
+      <c r="W158" s="7"/>
+      <c r="X158" s="7"/>
+      <c r="Y158" s="7"/>
+      <c r="Z158" s="3"/>
+      <c r="AA158" s="3"/>
+      <c r="AB158" s="3"/>
+    </row>
+    <row r="159" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A159" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C159" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D159" s="10">
+        <v>28.4</v>
+      </c>
+      <c r="E159" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F159" s="14">
+        <v>2</v>
+      </c>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="6"/>
+      <c r="K159" s="6"/>
+      <c r="L159" s="7"/>
+      <c r="M159" s="13"/>
+      <c r="N159" s="13"/>
+      <c r="O159" s="13"/>
+      <c r="P159" s="13"/>
+      <c r="Q159" s="13"/>
+      <c r="R159" s="13"/>
+      <c r="S159" s="13"/>
+      <c r="T159" s="13"/>
+      <c r="U159" s="13"/>
+      <c r="V159" s="13"/>
+      <c r="W159" s="7"/>
+      <c r="X159" s="7"/>
+      <c r="Y159" s="7"/>
+      <c r="Z159" s="3"/>
+      <c r="AA159" s="3"/>
+      <c r="AB159" s="3"/>
+    </row>
+    <row r="160" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A160" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C160" s="10">
+        <v>0.39</v>
+      </c>
+      <c r="D160" s="10">
+        <v>26.3</v>
+      </c>
+      <c r="E160" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F160" s="14">
+        <v>1</v>
+      </c>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="6"/>
+      <c r="K160" s="6"/>
+      <c r="L160" s="7"/>
+      <c r="M160" s="12"/>
+      <c r="N160" s="12"/>
+      <c r="O160" s="12"/>
+      <c r="P160" s="12"/>
+      <c r="Q160" s="12"/>
+      <c r="R160" s="12"/>
+      <c r="S160" s="12"/>
+      <c r="T160" s="12"/>
+      <c r="U160" s="12"/>
+      <c r="V160" s="12"/>
+      <c r="W160" s="7"/>
+      <c r="X160" s="7"/>
+      <c r="Y160" s="7"/>
+      <c r="Z160" s="3"/>
+      <c r="AA160" s="3"/>
+      <c r="AB160" s="3"/>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A161" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C161" s="10">
+        <v>0.61</v>
+      </c>
+      <c r="D161" s="10">
+        <v>40.5</v>
+      </c>
+      <c r="E161" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F161" s="14">
+        <v>2</v>
+      </c>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="6"/>
+      <c r="K161" s="6"/>
+      <c r="L161" s="7"/>
+      <c r="M161" s="12"/>
+      <c r="N161" s="12"/>
+      <c r="O161" s="12"/>
+      <c r="P161" s="12"/>
+      <c r="Q161" s="12"/>
+      <c r="R161" s="12"/>
+      <c r="S161" s="12"/>
+      <c r="T161" s="12"/>
+      <c r="U161" s="12"/>
+      <c r="V161" s="12"/>
+      <c r="W161" s="7"/>
+      <c r="X161" s="7"/>
+      <c r="Y161" s="7"/>
+      <c r="Z161" s="3"/>
+      <c r="AA161" s="3"/>
+      <c r="AB161" s="3"/>
+    </row>
+    <row r="162" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A162" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C162" s="9">
+        <v>0.18</v>
+      </c>
+      <c r="D162" s="9">
+        <v>14.5</v>
+      </c>
+      <c r="E162" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F162" s="14">
+        <v>1</v>
+      </c>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="6"/>
+      <c r="K162" s="6"/>
+      <c r="L162" s="7"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="Q162" s="12"/>
+      <c r="R162" s="12"/>
+      <c r="S162" s="12"/>
+      <c r="T162" s="12"/>
+      <c r="U162" s="12"/>
+      <c r="V162" s="12"/>
+      <c r="W162" s="7"/>
+      <c r="X162" s="7"/>
+      <c r="Y162" s="7"/>
+      <c r="Z162" s="3"/>
+      <c r="AA162" s="3"/>
+      <c r="AB162" s="3"/>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A163" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C163" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="D163" s="9">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F163" s="14">
+        <v>2</v>
+      </c>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="6"/>
+      <c r="K163" s="6"/>
+      <c r="L163" s="7"/>
+      <c r="M163" s="12"/>
+      <c r="N163" s="12"/>
+      <c r="O163" s="12"/>
+      <c r="P163" s="12"/>
+      <c r="Q163" s="12"/>
+      <c r="R163" s="12"/>
+      <c r="S163" s="12"/>
+      <c r="T163" s="12"/>
+      <c r="U163" s="12"/>
+      <c r="V163" s="12"/>
+      <c r="W163" s="7"/>
+      <c r="X163" s="7"/>
+      <c r="Y163" s="7"/>
+      <c r="Z163" s="3"/>
+      <c r="AA163" s="3"/>
+      <c r="AB163" s="3"/>
+    </row>
+    <row r="164" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A164" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C164" s="9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D164" s="9">
+        <v>10.7</v>
+      </c>
+      <c r="E164" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F164" s="14">
+        <v>1</v>
+      </c>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="6"/>
+      <c r="K164" s="6"/>
+      <c r="L164" s="7"/>
+      <c r="M164" s="13"/>
+      <c r="N164" s="13"/>
+      <c r="O164" s="13"/>
+      <c r="P164" s="13"/>
+      <c r="Q164" s="13"/>
+      <c r="R164" s="13"/>
+      <c r="S164" s="13"/>
+      <c r="T164" s="13"/>
+      <c r="U164" s="13"/>
+      <c r="V164" s="13"/>
+      <c r="W164" s="7"/>
+      <c r="X164" s="7"/>
+      <c r="Y164" s="7"/>
+      <c r="Z164" s="3"/>
+      <c r="AA164" s="3"/>
+      <c r="AB164" s="3"/>
+    </row>
+    <row r="165" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A165" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C165" s="9">
+        <v>0.06</v>
+      </c>
+      <c r="D165" s="9">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E165" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F165" s="14">
+        <v>2</v>
+      </c>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="6"/>
+      <c r="K165" s="6"/>
+      <c r="L165" s="7"/>
+      <c r="M165" s="13"/>
+      <c r="N165" s="13"/>
+      <c r="O165" s="13"/>
+      <c r="P165" s="13"/>
+      <c r="Q165" s="13"/>
+      <c r="R165" s="13"/>
+      <c r="S165" s="13"/>
+      <c r="T165" s="13"/>
+      <c r="U165" s="13"/>
+      <c r="V165" s="13"/>
+      <c r="W165" s="7"/>
+      <c r="X165" s="7"/>
+      <c r="Y165" s="7"/>
+      <c r="Z165" s="3"/>
+      <c r="AA165" s="3"/>
+      <c r="AB165" s="3"/>
+    </row>
+    <row r="166" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A166" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C166" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="D166" s="10">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F166" s="14">
+        <v>1</v>
+      </c>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="6"/>
+      <c r="K166" s="6"/>
+      <c r="L166" s="7"/>
+      <c r="M166" s="13"/>
+      <c r="N166" s="13"/>
+      <c r="O166" s="13"/>
+      <c r="P166" s="13"/>
+      <c r="Q166" s="13"/>
+      <c r="R166" s="13"/>
+      <c r="S166" s="13"/>
+      <c r="T166" s="13"/>
+      <c r="U166" s="13"/>
+      <c r="V166" s="13"/>
+      <c r="W166" s="7"/>
+      <c r="X166" s="7"/>
+      <c r="Y166" s="7"/>
+      <c r="Z166" s="3"/>
+      <c r="AA166" s="3"/>
+      <c r="AB166" s="3"/>
+    </row>
+    <row r="167" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A167" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C167" s="10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="D167" s="10">
+        <v>12.1</v>
+      </c>
+      <c r="E167" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F167" s="14">
+        <v>2</v>
+      </c>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="6"/>
+      <c r="K167" s="6"/>
+      <c r="L167" s="7"/>
+      <c r="M167" s="13"/>
+      <c r="N167" s="13"/>
+      <c r="O167" s="13"/>
+      <c r="P167" s="13"/>
+      <c r="Q167" s="13"/>
+      <c r="R167" s="13"/>
+      <c r="S167" s="13"/>
+      <c r="T167" s="13"/>
+      <c r="U167" s="13"/>
+      <c r="V167" s="13"/>
+      <c r="W167" s="7"/>
+      <c r="X167" s="7"/>
+      <c r="Y167" s="7"/>
+      <c r="Z167" s="3"/>
+      <c r="AA167" s="3"/>
+      <c r="AB167" s="3"/>
+    </row>
+    <row r="168" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A168" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C168" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D168" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F168" s="14">
+        <v>1</v>
+      </c>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="6"/>
+      <c r="K168" s="6"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="U168" s="7"/>
+      <c r="V168" s="7"/>
+      <c r="W168" s="7"/>
+      <c r="X168" s="7"/>
+      <c r="Y168" s="7"/>
+      <c r="Z168" s="3"/>
+      <c r="AA168" s="3"/>
+      <c r="AB168" s="3"/>
+    </row>
+    <row r="169" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A169" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="C169" s="10">
+        <v>1</v>
+      </c>
+      <c r="D169" s="10">
+        <v>13.3</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F169" s="14">
+        <v>2</v>
+      </c>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="6"/>
+      <c r="K169" s="6"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+      <c r="R169" s="7"/>
+      <c r="S169" s="7"/>
+      <c r="T169" s="7"/>
+      <c r="U169" s="7"/>
+      <c r="V169" s="7"/>
+      <c r="W169" s="7"/>
+      <c r="X169" s="7"/>
+      <c r="Y169" s="7"/>
+      <c r="Z169" s="3"/>
+      <c r="AA169" s="3"/>
+      <c r="AB169" s="3"/>
+    </row>
+    <row r="170" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A170" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C170" s="9">
+        <v>0.3</v>
+      </c>
+      <c r="D170" s="9">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F170" s="14">
+        <v>2</v>
+      </c>
+      <c r="J170" s="4"/>
+      <c r="K170" s="4"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="7"/>
+      <c r="S170" s="7"/>
+      <c r="T170" s="7"/>
+      <c r="U170" s="7"/>
+      <c r="V170" s="7"/>
+      <c r="W170" s="7"/>
+      <c r="X170" s="7"/>
+      <c r="Y170" s="7"/>
+      <c r="Z170" s="3"/>
+      <c r="AA170" s="3"/>
+      <c r="AB170" s="3"/>
+    </row>
+    <row r="171" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A171" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C171" s="9">
+        <v>0.32</v>
+      </c>
+      <c r="D171" s="9">
+        <v>18.3</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F171" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A172" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C172" s="9">
+        <v>0.27</v>
+      </c>
+      <c r="D172" s="9">
+        <v>15.8</v>
+      </c>
+      <c r="E172" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F172" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A173" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C173" s="9">
+        <v>0.11</v>
+      </c>
+      <c r="D173" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F173" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A174" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C174" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="D174" s="10">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F174" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A175" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C175" s="10">
+        <v>0.18</v>
+      </c>
+      <c r="D175" s="10">
+        <v>10</v>
+      </c>
+      <c r="E175" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F175" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A176" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C176" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="D176" s="10">
+        <v>6.6</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F176" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C177" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D177" s="10">
+        <v>10.7</v>
+      </c>
+      <c r="E177" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F177" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C178" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="D178" s="9">
+        <v>12.8</v>
+      </c>
+      <c r="E178" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F178" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C179" s="9">
+        <v>0.37</v>
+      </c>
+      <c r="D179" s="9">
+        <v>20.3</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F179" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C180" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D180" s="9">
+        <v>15.1</v>
+      </c>
+      <c r="E180" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F180" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="C181" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D181" s="9">
+        <v>6.4</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F181" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C182" s="10">
+        <v>0.15</v>
+      </c>
+      <c r="D182" s="10">
+        <v>11.6</v>
+      </c>
+      <c r="E182" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F182" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C183" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D183" s="10">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="E183" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F183" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C184" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D184" s="10">
+        <v>10.6</v>
+      </c>
+      <c r="E184" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F184" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C185" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="D185" s="10">
+        <v>11.5</v>
+      </c>
+      <c r="E185" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F185" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B186" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C186" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D186" s="9">
+        <v>19.5</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F186" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B187" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C187" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="D187" s="9">
+        <v>27.6</v>
+      </c>
+      <c r="E187" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F187" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B188" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C188" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="D188" s="9">
+        <v>15.3</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F188" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B189" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="C189" s="9">
+        <v>0.1</v>
+      </c>
+      <c r="D189" s="9">
+        <v>6.9</v>
+      </c>
+      <c r="E189" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F189" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C190" s="10">
+        <v>0.17</v>
+      </c>
+      <c r="D190" s="10">
+        <v>11.3</v>
+      </c>
+      <c r="E190" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F190" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C191" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="D191" s="10">
+        <v>22.4</v>
+      </c>
+      <c r="E191" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F191" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B192" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C192" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="D192" s="10">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F192" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B193" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C193" s="10">
+        <v>0.24</v>
+      </c>
+      <c r="D193" s="10">
+        <v>15.8</v>
+      </c>
+      <c r="E193" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="F193" s="14">
         <v>3</v>
       </c>
     </row>
